--- a/tmp/metrics.xlsx
+++ b/tmp/metrics.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="comments" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$D$1:$D$34</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="130">
   <si>
     <t>year</t>
   </si>
@@ -391,28 +395,67 @@
   <si>
     <t>IR</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OverAll Comments</t>
+  </si>
+  <si>
+    <t>AAD Comments</t>
+  </si>
+  <si>
+    <t>AS Comments</t>
+  </si>
+  <si>
+    <t>AAD POSI</t>
+  </si>
+  <si>
+    <t>AAD NEG</t>
+  </si>
+  <si>
+    <t>AS POSI</t>
+  </si>
+  <si>
+    <t>AS NEG</t>
+  </si>
+  <si>
+    <t>overall open issues</t>
+  </si>
+  <si>
+    <t>AS OI</t>
+  </si>
+  <si>
+    <t>AAD OI</t>
+  </si>
+  <si>
+    <t>Overall Open Issue Ratio</t>
+  </si>
+  <si>
+    <t>AAD IOR</t>
+  </si>
+  <si>
+    <t>AS IOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -420,14 +463,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -537,8 +580,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -638,6 +681,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -673,6 +733,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -849,13 +926,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AN19" sqref="AN19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="12" width="18.5" customWidth="1"/>
     <col min="13" max="13" width="13.375" customWidth="1"/>
@@ -864,6 +941,7 @@
     <col min="16" max="16" width="13.5" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
     <col min="22" max="22" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.75" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="21.5" customWidth="1"/>
     <col min="28" max="28" width="12.625" customWidth="1"/>
     <col min="29" max="29" width="22.875" customWidth="1"/>
@@ -871,9 +949,10 @@
     <col min="31" max="31" width="15.5" customWidth="1"/>
     <col min="32" max="32" width="14.875" customWidth="1"/>
     <col min="33" max="33" width="14.125" customWidth="1"/>
+    <col min="36" max="36" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -976,8 +1055,26 @@
       <c r="AI1" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="AJ1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="15.75" thickTop="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1069,21 +1166,21 @@
         <v>3282390.1998000001</v>
       </c>
       <c r="AC2" s="6">
-        <f>AB2/D2</f>
+        <f t="shared" ref="AC2:AC14" si="0">AB2/D2</f>
         <v>37728.622986206894</v>
       </c>
       <c r="AD2" s="6">
         <v>2501421.1331000002</v>
       </c>
       <c r="AE2" s="6">
-        <f>AD2/E2</f>
+        <f t="shared" ref="AE2:AE14" si="1">AD2/E2</f>
         <v>35231.283564788733</v>
       </c>
       <c r="AF2" s="6">
         <v>780969.06669999997</v>
       </c>
       <c r="AG2" s="6">
-        <f>AF2/F2</f>
+        <f t="shared" ref="AG2:AG14" si="2">AF2/F2</f>
         <v>48810.566668749998</v>
       </c>
       <c r="AH2" s="5">
@@ -1092,8 +1189,29 @@
       <c r="AI2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AJ2">
+        <v>16</v>
+      </c>
+      <c r="AK2">
+        <v>6</v>
+      </c>
+      <c r="AL2">
+        <v>10</v>
+      </c>
+      <c r="AM2">
+        <f>AJ2/D2</f>
+        <v>0.18390804597701149</v>
+      </c>
+      <c r="AN2">
+        <f>AK2/E2</f>
+        <v>8.4507042253521125E-2</v>
+      </c>
+      <c r="AO2">
+        <f>AL2/F2</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1122,15 +1240,15 @@
         <v>8</v>
       </c>
       <c r="J3" s="9">
-        <f t="shared" ref="J3:J14" si="0">G3/D3</f>
+        <f t="shared" ref="J3:J14" si="3">G3/D3</f>
         <v>0.80281690140845074</v>
       </c>
       <c r="K3" s="9">
-        <f t="shared" ref="K3:K14" si="1">H3/E3</f>
+        <f t="shared" ref="K3:K14" si="4">H3/E3</f>
         <v>0.77777777777777779</v>
       </c>
       <c r="L3" s="9">
-        <f t="shared" ref="L3:L14" si="2">I3/F3</f>
+        <f t="shared" ref="L3:L14" si="5">I3/F3</f>
         <v>1</v>
       </c>
       <c r="M3" s="5">
@@ -1161,15 +1279,15 @@
         <v>1</v>
       </c>
       <c r="V3" s="10">
-        <f t="shared" ref="V3:V14" si="3">M3/D3</f>
+        <f t="shared" ref="V3:V14" si="6">M3/D3</f>
         <v>0.78873239436619713</v>
       </c>
       <c r="W3" s="10">
-        <f t="shared" ref="W3:W14" si="4">N3/E3</f>
+        <f t="shared" ref="W3:W14" si="7">N3/E3</f>
         <v>0.87301587301587302</v>
       </c>
       <c r="X3" s="10">
-        <f t="shared" ref="X3:X14" si="5">O3/F3</f>
+        <f t="shared" ref="X3:X14" si="8">O3/F3</f>
         <v>0.125</v>
       </c>
       <c r="Y3" s="6">
@@ -1185,21 +1303,21 @@
         <v>3652996.3997999998</v>
       </c>
       <c r="AC3" s="6">
-        <f>AB3/D3</f>
+        <f t="shared" si="0"/>
         <v>51450.653518309853</v>
       </c>
       <c r="AD3" s="6">
         <v>3161290.3166</v>
       </c>
       <c r="AE3" s="6">
-        <f>AD3/E3</f>
+        <f t="shared" si="1"/>
         <v>50179.211374603175</v>
       </c>
       <c r="AF3" s="6">
         <v>491706.08319999999</v>
       </c>
       <c r="AG3" s="6">
-        <f>AF3/F3</f>
+        <f t="shared" si="2"/>
         <v>61463.260399999999</v>
       </c>
       <c r="AH3" s="5">
@@ -1208,8 +1326,29 @@
       <c r="AI3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AJ3">
+        <v>15</v>
+      </c>
+      <c r="AK3">
+        <v>8</v>
+      </c>
+      <c r="AL3">
+        <v>7</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" ref="AM3:AM13" si="9">AJ3/D3</f>
+        <v>0.21126760563380281</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" ref="AN3:AN13" si="10">AK3/E3</f>
+        <v>0.12698412698412698</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" ref="AO3:AO13" si="11">AL3/F3</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1238,15 +1377,15 @@
         <v>10</v>
       </c>
       <c r="J4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.65</v>
       </c>
       <c r="K4" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.72368421052631582</v>
       </c>
       <c r="L4" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="M4" s="5">
@@ -1277,15 +1416,15 @@
         <v>2</v>
       </c>
       <c r="V4" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.71</v>
       </c>
       <c r="W4" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.86842105263157898</v>
       </c>
       <c r="X4" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.20833333333333334</v>
       </c>
       <c r="Y4" s="6">
@@ -1301,21 +1440,21 @@
         <v>4064370.8829999999</v>
       </c>
       <c r="AC4" s="6">
-        <f>AB4/D4</f>
+        <f t="shared" si="0"/>
         <v>40643.708829999996</v>
       </c>
       <c r="AD4" s="6">
         <v>3720358.0830999999</v>
       </c>
       <c r="AE4" s="6">
-        <f>AD4/E4</f>
+        <f t="shared" si="1"/>
         <v>48952.080040789471</v>
       </c>
       <c r="AF4" s="6">
         <v>344012.79989999998</v>
       </c>
       <c r="AG4" s="6">
-        <f>AF4/F4</f>
+        <f t="shared" si="2"/>
         <v>14333.866662499999</v>
       </c>
       <c r="AH4" s="5">
@@ -1324,8 +1463,29 @@
       <c r="AI4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AJ4">
+        <v>29</v>
+      </c>
+      <c r="AK4">
+        <v>10</v>
+      </c>
+      <c r="AL4">
+        <v>19</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" si="9"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" si="10"/>
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" si="11"/>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1354,15 +1514,15 @@
         <v>8</v>
       </c>
       <c r="J5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.6875</v>
       </c>
       <c r="K5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.83720930232558144</v>
       </c>
       <c r="L5" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.38095238095238093</v>
       </c>
       <c r="M5" s="5">
@@ -1393,15 +1553,15 @@
         <v>3</v>
       </c>
       <c r="V5" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.625</v>
       </c>
       <c r="W5" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.86046511627906974</v>
       </c>
       <c r="X5" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="Y5" s="6">
@@ -1417,21 +1577,21 @@
         <v>2039934.8663999999</v>
       </c>
       <c r="AC5" s="6">
-        <f>AB5/D5</f>
+        <f t="shared" si="0"/>
         <v>31873.982287499999</v>
       </c>
       <c r="AD5" s="6">
         <v>1997670.9831999999</v>
       </c>
       <c r="AE5" s="6">
-        <f>AD5/E5</f>
+        <f t="shared" si="1"/>
         <v>46457.464725581391</v>
       </c>
       <c r="AF5" s="6">
         <v>42263.883199999997</v>
       </c>
       <c r="AG5" s="6">
-        <f>AF5/F5</f>
+        <f t="shared" si="2"/>
         <v>2012.5658666666666</v>
       </c>
       <c r="AH5" s="5">
@@ -1440,8 +1600,29 @@
       <c r="AI5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AJ5">
+        <v>24</v>
+      </c>
+      <c r="AK5">
+        <v>6</v>
+      </c>
+      <c r="AL5">
+        <v>18</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="9"/>
+        <v>0.375</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="10"/>
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="11"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1470,15 +1651,15 @@
         <v>3</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.83636363636363631</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.89583333333333337</v>
       </c>
       <c r="L6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="M6" s="5">
@@ -1509,15 +1690,15 @@
         <v>0</v>
       </c>
       <c r="V6" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.74545454545454548</v>
       </c>
       <c r="W6" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="X6" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="Y6" s="6">
@@ -1533,21 +1714,21 @@
         <v>2515148.3333999999</v>
       </c>
       <c r="AC6" s="6">
-        <f>AB6/D6</f>
+        <f t="shared" si="0"/>
         <v>45729.96969818182</v>
       </c>
       <c r="AD6" s="6">
         <v>2327523.7167000002</v>
       </c>
       <c r="AE6" s="6">
-        <f>AD6/E6</f>
+        <f t="shared" si="1"/>
         <v>48490.077431250007</v>
       </c>
       <c r="AF6" s="6">
         <v>187624.61670000001</v>
       </c>
       <c r="AG6" s="6">
-        <f>AF6/F6</f>
+        <f t="shared" si="2"/>
         <v>26803.516671428573</v>
       </c>
       <c r="AH6" s="5">
@@ -1556,8 +1737,29 @@
       <c r="AI6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AJ6">
+        <v>14</v>
+      </c>
+      <c r="AK6">
+        <v>10</v>
+      </c>
+      <c r="AL6">
+        <v>4</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="9"/>
+        <v>0.25454545454545452</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="10"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="11"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1586,15 +1788,15 @@
         <v>6</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.65277777777777779</v>
       </c>
       <c r="K7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.67213114754098358</v>
       </c>
       <c r="L7" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="M7" s="5">
@@ -1625,15 +1827,15 @@
         <v>2</v>
       </c>
       <c r="V7" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="W7" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.85245901639344257</v>
       </c>
       <c r="X7" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="Y7" s="6">
@@ -1649,21 +1851,21 @@
         <v>1410252.0001000001</v>
       </c>
       <c r="AC7" s="6">
-        <f>AB7/D7</f>
+        <f t="shared" si="0"/>
         <v>19586.833334722221</v>
       </c>
       <c r="AD7" s="6">
         <v>1338314.0168000001</v>
       </c>
       <c r="AE7" s="6">
-        <f>AD7/E7</f>
+        <f t="shared" si="1"/>
         <v>21939.574045901642</v>
       </c>
       <c r="AF7" s="6">
         <v>71937.983300000007</v>
       </c>
       <c r="AG7" s="6">
-        <f>AF7/F7</f>
+        <f t="shared" si="2"/>
         <v>6539.816663636364</v>
       </c>
       <c r="AH7" s="5">
@@ -1672,8 +1874,29 @@
       <c r="AI7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AJ7">
+        <v>16</v>
+      </c>
+      <c r="AK7">
+        <v>9</v>
+      </c>
+      <c r="AL7">
+        <v>7</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="9"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="10"/>
+        <v>0.14754098360655737</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="11"/>
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1702,15 +1925,15 @@
         <v>9</v>
       </c>
       <c r="J8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="K8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="L8" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.6428571428571429</v>
       </c>
       <c r="M8" s="5">
@@ -1741,15 +1964,15 @@
         <v>4</v>
       </c>
       <c r="V8" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.72115384615384615</v>
       </c>
       <c r="W8" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.78888888888888886</v>
       </c>
       <c r="X8" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="Y8" s="6">
@@ -1765,21 +1988,21 @@
         <v>2360355.1669999999</v>
       </c>
       <c r="AC8" s="6">
-        <f>AB8/D8</f>
+        <f t="shared" si="0"/>
         <v>22695.722759615383</v>
       </c>
       <c r="AD8" s="6">
         <v>1934454.4336000001</v>
       </c>
       <c r="AE8" s="6">
-        <f>AD8/E8</f>
+        <f t="shared" si="1"/>
         <v>21493.938151111113</v>
       </c>
       <c r="AF8" s="6">
         <v>425900.73340000003</v>
       </c>
       <c r="AG8" s="6">
-        <f>AF8/F8</f>
+        <f t="shared" si="2"/>
         <v>30421.48095714286</v>
       </c>
       <c r="AH8" s="5">
@@ -1788,8 +2011,29 @@
       <c r="AI8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AJ8">
+        <v>29</v>
+      </c>
+      <c r="AK8">
+        <v>19</v>
+      </c>
+      <c r="AL8">
+        <v>10</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="9"/>
+        <v>0.27884615384615385</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="10"/>
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="11"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1818,15 +2062,15 @@
         <v>3</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.55737704918032782</v>
       </c>
       <c r="K9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.6132075471698113</v>
       </c>
       <c r="L9" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.1875</v>
       </c>
       <c r="M9" s="5">
@@ -1857,15 +2101,15 @@
         <v>2</v>
       </c>
       <c r="V9" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.73770491803278693</v>
       </c>
       <c r="W9" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.83018867924528306</v>
       </c>
       <c r="X9" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
       <c r="Y9" s="6">
@@ -1881,21 +2125,21 @@
         <v>1510909.8337000001</v>
       </c>
       <c r="AC9" s="6">
-        <f>AB9/D9</f>
+        <f t="shared" si="0"/>
         <v>12384.506833606558</v>
       </c>
       <c r="AD9" s="6">
         <v>1470454.6669999999</v>
       </c>
       <c r="AE9" s="6">
-        <f>AD9/E9</f>
+        <f t="shared" si="1"/>
         <v>13872.21383962264</v>
       </c>
       <c r="AF9" s="6">
         <v>40455.166700000002</v>
       </c>
       <c r="AG9" s="6">
-        <f>AF9/F9</f>
+        <f t="shared" si="2"/>
         <v>2528.4479187500001</v>
       </c>
       <c r="AH9" s="5">
@@ -1904,8 +2148,29 @@
       <c r="AI9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AJ9">
+        <v>32</v>
+      </c>
+      <c r="AK9">
+        <v>18</v>
+      </c>
+      <c r="AL9">
+        <v>14</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="9"/>
+        <v>0.26229508196721313</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="10"/>
+        <v>0.16981132075471697</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="11"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1934,15 +2199,15 @@
         <v>5</v>
       </c>
       <c r="J10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.59633027522935778</v>
       </c>
       <c r="K10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.59405940594059403</v>
       </c>
       <c r="L10" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
       <c r="M10" s="5">
@@ -1973,15 +2238,15 @@
         <v>2</v>
       </c>
       <c r="V10" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.77064220183486243</v>
       </c>
       <c r="W10" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.79207920792079212</v>
       </c>
       <c r="X10" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="Y10" s="6">
@@ -1997,21 +2262,21 @@
         <v>699333.21669999999</v>
       </c>
       <c r="AC10" s="6">
-        <f>AB10/D10</f>
+        <f t="shared" si="0"/>
         <v>6415.9010706422014</v>
       </c>
       <c r="AD10" s="6">
         <v>674149.95</v>
       </c>
       <c r="AE10" s="6">
-        <f>AD10/E10</f>
+        <f t="shared" si="1"/>
         <v>6674.7519801980197</v>
       </c>
       <c r="AF10" s="6">
         <v>25183.2667</v>
       </c>
       <c r="AG10" s="6">
-        <f>AF10/F10</f>
+        <f t="shared" si="2"/>
         <v>3147.9083375</v>
       </c>
       <c r="AH10" s="5">
@@ -2020,8 +2285,29 @@
       <c r="AI10" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AJ10">
+        <v>25</v>
+      </c>
+      <c r="AK10">
+        <v>21</v>
+      </c>
+      <c r="AL10">
+        <v>4</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="9"/>
+        <v>0.22935779816513763</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="10"/>
+        <v>0.20792079207920791</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2050,15 +2336,15 @@
         <v>4</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.70149253731343286</v>
       </c>
       <c r="K11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.8035714285714286</v>
       </c>
       <c r="L11" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="M11" s="5">
@@ -2089,15 +2375,15 @@
         <v>2</v>
       </c>
       <c r="V11" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.64925373134328357</v>
       </c>
       <c r="W11" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
       <c r="X11" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="Y11" s="6">
@@ -2113,21 +2399,21 @@
         <v>1662742.8829000001</v>
       </c>
       <c r="AC11" s="6">
-        <f>AB11/D11</f>
+        <f t="shared" si="0"/>
         <v>12408.528976865673</v>
       </c>
       <c r="AD11" s="6">
         <v>1497315.5497000001</v>
       </c>
       <c r="AE11" s="6">
-        <f>AD11/E11</f>
+        <f t="shared" si="1"/>
         <v>13368.888836607144</v>
       </c>
       <c r="AF11" s="6">
         <v>165427.33319999999</v>
       </c>
       <c r="AG11" s="6">
-        <f>AF11/F11</f>
+        <f t="shared" si="2"/>
         <v>7519.4242363636358</v>
       </c>
       <c r="AH11" s="5">
@@ -2136,8 +2422,29 @@
       <c r="AI11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AJ11">
+        <v>47</v>
+      </c>
+      <c r="AK11">
+        <v>28</v>
+      </c>
+      <c r="AL11">
+        <v>19</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="9"/>
+        <v>0.35074626865671643</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="10"/>
+        <v>0.25</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="11"/>
+        <v>0.86363636363636365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2166,15 +2473,15 @@
         <v>7</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.703125</v>
       </c>
       <c r="K12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.73451327433628322</v>
       </c>
       <c r="L12" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="M12" s="5">
@@ -2205,15 +2512,15 @@
         <v>1</v>
       </c>
       <c r="V12" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.703125</v>
       </c>
       <c r="W12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.76991150442477874</v>
       </c>
       <c r="X12" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
       <c r="Y12" s="6">
@@ -2229,21 +2536,21 @@
         <v>729064.08279999997</v>
       </c>
       <c r="AC12" s="6">
-        <f>AB12/D12</f>
+        <f t="shared" si="0"/>
         <v>5695.8131468749998</v>
       </c>
       <c r="AD12" s="6">
         <v>720781.31610000005</v>
       </c>
       <c r="AE12" s="6">
-        <f>AD12/E12</f>
+        <f t="shared" si="1"/>
         <v>6378.5957176991151</v>
       </c>
       <c r="AF12" s="6">
         <v>8282.7667000000001</v>
       </c>
       <c r="AG12" s="6">
-        <f>AF12/F12</f>
+        <f t="shared" si="2"/>
         <v>552.18444666666664</v>
       </c>
       <c r="AH12" s="5">
@@ -2252,8 +2559,29 @@
       <c r="AI12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AJ12">
+        <v>38</v>
+      </c>
+      <c r="AK12">
+        <v>26</v>
+      </c>
+      <c r="AL12">
+        <v>12</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="9"/>
+        <v>0.296875</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="10"/>
+        <v>0.23008849557522124</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="11"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2282,15 +2610,15 @@
         <v>6</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.58181818181818179</v>
       </c>
       <c r="K13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.62365591397849462</v>
       </c>
       <c r="L13" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="M13" s="5">
@@ -2321,15 +2649,15 @@
         <v>3</v>
       </c>
       <c r="V13" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="W13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.55913978494623651</v>
       </c>
       <c r="X13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="Y13" s="6">
@@ -2345,21 +2673,21 @@
         <v>402141.93320000003</v>
       </c>
       <c r="AC13" s="6">
-        <f>AB13/D13</f>
+        <f t="shared" si="0"/>
         <v>3655.8357563636368</v>
       </c>
       <c r="AD13" s="6">
         <v>386204.38309999998</v>
       </c>
       <c r="AE13" s="6">
-        <f>AD13/E13</f>
+        <f t="shared" si="1"/>
         <v>4152.7353021505378</v>
       </c>
       <c r="AF13" s="6">
         <v>15937.5501</v>
       </c>
       <c r="AG13" s="6">
-        <f>AF13/F13</f>
+        <f t="shared" si="2"/>
         <v>937.50294705882357</v>
       </c>
       <c r="AH13" s="5">
@@ -2368,23 +2696,44 @@
       <c r="AI13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AJ13">
+        <v>55</v>
+      </c>
+      <c r="AK13">
+        <v>41</v>
+      </c>
+      <c r="AL13">
+        <v>14</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="10"/>
+        <v>0.44086021505376344</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="11"/>
+        <v>0.82352941176470584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="5">
-        <f t="shared" ref="D14:U14" si="6">SUM(D2:D13)</f>
+        <f t="shared" ref="D14:U14" si="12">SUM(D2:D13)</f>
         <v>1156</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>977</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>179</v>
       </c>
       <c r="G14" s="5">
@@ -2400,63 +2749,63 @@
         <v>78</v>
       </c>
       <c r="J14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.67387543252595161</v>
       </c>
       <c r="K14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.71750255885363357</v>
       </c>
       <c r="L14" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.43575418994413406</v>
       </c>
       <c r="M14" s="5">
+        <f t="shared" si="12"/>
+        <v>816</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="12"/>
+        <v>775</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="12"/>
+        <v>41</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="12"/>
+        <v>182</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="12"/>
+        <v>160</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="S14" s="5">
+        <f t="shared" si="12"/>
+        <v>270</v>
+      </c>
+      <c r="T14" s="5">
+        <f t="shared" si="12"/>
+        <v>243</v>
+      </c>
+      <c r="U14" s="5">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="V14" s="10">
         <f t="shared" si="6"/>
-        <v>816</v>
-      </c>
-      <c r="N14" s="5">
-        <f t="shared" si="6"/>
-        <v>775</v>
-      </c>
-      <c r="O14" s="5">
-        <f t="shared" si="6"/>
-        <v>41</v>
-      </c>
-      <c r="P14" s="5">
-        <f t="shared" si="6"/>
-        <v>182</v>
-      </c>
-      <c r="Q14" s="5">
-        <f t="shared" si="6"/>
-        <v>160</v>
-      </c>
-      <c r="R14" s="5">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="S14" s="5">
-        <f t="shared" si="6"/>
-        <v>270</v>
-      </c>
-      <c r="T14" s="5">
-        <f t="shared" si="6"/>
-        <v>243</v>
-      </c>
-      <c r="U14" s="5">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="V14" s="10">
-        <f t="shared" si="3"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="W14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.79324462640736948</v>
       </c>
       <c r="X14" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.22905027932960895</v>
       </c>
       <c r="Y14" s="6">
@@ -2473,7 +2822,7 @@
         <v>24329639.798800003</v>
       </c>
       <c r="AC14" s="6">
-        <f>AB14/D14</f>
+        <f t="shared" si="0"/>
         <v>21046.401210034604</v>
       </c>
       <c r="AD14" s="6">
@@ -2481,7 +2830,7 @@
         <v>21729938.548999999</v>
       </c>
       <c r="AE14" s="6">
-        <f>AD14/E14</f>
+        <f t="shared" si="1"/>
         <v>22241.492885363357</v>
       </c>
       <c r="AF14" s="6">
@@ -2489,7 +2838,7 @@
         <v>2599701.2498000003</v>
       </c>
       <c r="AG14" s="6">
-        <f>AF14/F14</f>
+        <f t="shared" si="2"/>
         <v>14523.470669273745</v>
       </c>
       <c r="AH14" s="5">
@@ -2504,25 +2853,463 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>236</v>
+      </c>
+      <c r="E2">
+        <v>211</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>189</v>
+      </c>
+      <c r="E3">
+        <v>156</v>
+      </c>
+      <c r="F3">
+        <v>33</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>184</v>
+      </c>
+      <c r="E4">
+        <v>159</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>164</v>
+      </c>
+      <c r="E5">
+        <v>128</v>
+      </c>
+      <c r="F5">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>239</v>
+      </c>
+      <c r="E6">
+        <v>236</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>170</v>
+      </c>
+      <c r="E7">
+        <v>155</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>245</v>
+      </c>
+      <c r="E8">
+        <v>231</v>
+      </c>
+      <c r="F8">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>199</v>
+      </c>
+      <c r="E9">
+        <v>194</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>278</v>
+      </c>
+      <c r="E10">
+        <v>269</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>313</v>
+      </c>
+      <c r="E11">
+        <v>307</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>266</v>
+      </c>
+      <c r="E12">
+        <v>255</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>151</v>
+      </c>
+      <c r="E13">
+        <v>145</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="22" customWidth="1"/>
     <col min="4" max="5" width="86" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -2539,7 +3326,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2557,7 +3344,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2565,7 +3352,7 @@
         <v>255768.25</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C34" si="0">B3*60</f>
+        <f>B3*60</f>
         <v>15346095</v>
       </c>
       <c r="D3" t="s">
@@ -2575,7 +3362,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2583,7 +3370,7 @@
         <v>101508.05</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f>B4*60</f>
         <v>6090483</v>
       </c>
       <c r="D4" t="s">
@@ -2593,7 +3380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" hidden="1">
       <c r="A5">
         <v>15</v>
       </c>
@@ -2601,7 +3388,7 @@
         <v>95670.116666670001</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f>B5*60</f>
         <v>5740207.0000002002</v>
       </c>
       <c r="D5" t="s">
@@ -2611,7 +3398,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2619,7 +3406,7 @@
         <v>83686.883300000001</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f>B6*60</f>
         <v>5021212.9979999997</v>
       </c>
       <c r="D6" t="s">
@@ -2629,7 +3416,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2637,7 +3424,7 @@
         <v>81809.355533330003</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f>B7*60</f>
         <v>4908561.3319998002</v>
       </c>
       <c r="D7" t="s">
@@ -2647,7 +3434,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2655,7 +3442,7 @@
         <v>65400.345824999997</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f>B8*60</f>
         <v>3924020.7494999999</v>
       </c>
       <c r="D8" t="s">
@@ -2665,7 +3452,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2673,7 +3460,7 @@
         <v>64200.016660000001</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f>B9*60</f>
         <v>3852000.9996000002</v>
       </c>
       <c r="D9" t="s">
@@ -2683,7 +3470,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" hidden="1">
       <c r="A10">
         <v>17</v>
       </c>
@@ -2691,7 +3478,7 @@
         <v>63707.816658819997</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f>B10*60</f>
         <v>3822468.9995291997</v>
       </c>
       <c r="D10" t="s">
@@ -2701,7 +3488,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2709,7 +3496,7 @@
         <v>61500.266666670002</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f>B11*60</f>
         <v>3690016.0000002002</v>
       </c>
       <c r="D11" t="s">
@@ -2719,7 +3506,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" hidden="1">
       <c r="A12">
         <v>95</v>
       </c>
@@ -2727,7 +3514,7 @@
         <v>49839.141754739998</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f>B12*60</f>
         <v>2990348.5052843997</v>
       </c>
       <c r="D12" t="s">
@@ -2737,7 +3524,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" hidden="1">
       <c r="A13">
         <v>18</v>
       </c>
@@ -2745,7 +3532,7 @@
         <v>49433.09166667</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f>B13*60</f>
         <v>2965985.5000001998</v>
       </c>
       <c r="D13" t="s">
@@ -2755,7 +3542,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2763,7 +3550,7 @@
         <v>43233.616699999999</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f>B14*60</f>
         <v>2594017.0019999999</v>
       </c>
       <c r="D14" t="s">
@@ -2773,7 +3560,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2781,7 +3568,7 @@
         <v>38830.433299999997</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f>B15*60</f>
         <v>2329825.9979999997</v>
       </c>
       <c r="D15" t="s">
@@ -2791,7 +3578,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" hidden="1">
       <c r="A16">
         <v>7</v>
       </c>
@@ -2799,7 +3586,7 @@
         <v>36870.233328570001</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f>B16*60</f>
         <v>2212213.9997141999</v>
       </c>
       <c r="D16" t="s">
@@ -2809,7 +3596,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17">
         <v>46</v>
       </c>
@@ -2817,7 +3604,7 @@
         <v>35195.87752609</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f>B17*60</f>
         <v>2111752.6515654</v>
       </c>
       <c r="D17" t="s">
@@ -2827,7 +3614,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" hidden="1">
       <c r="A18">
         <v>94</v>
       </c>
@@ -2835,7 +3622,7 @@
         <v>31455.506560639998</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f>B18*60</f>
         <v>1887330.3936383999</v>
       </c>
       <c r="D18" t="s">
@@ -2845,7 +3632,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2853,7 +3640,7 @@
         <v>29649.738866669999</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f>B19*60</f>
         <v>1778984.3320001999</v>
       </c>
       <c r="D19" t="s">
@@ -2863,7 +3650,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20">
         <v>85</v>
       </c>
@@ -2871,7 +3658,7 @@
         <v>28541.926469409998</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f>B20*60</f>
         <v>1712515.5881645998</v>
       </c>
       <c r="D20" t="s">
@@ -2881,7 +3668,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" hidden="1">
       <c r="A21">
         <v>51</v>
       </c>
@@ -2889,7 +3676,7 @@
         <v>23515.33365882</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f>B21*60</f>
         <v>1410920.0195291999</v>
       </c>
       <c r="D21" t="s">
@@ -2899,7 +3686,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" hidden="1">
       <c r="A22">
         <v>120</v>
       </c>
@@ -2907,7 +3694,7 @@
         <v>22124.113888330001</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f>B22*60</f>
         <v>1327446.8332998001</v>
       </c>
       <c r="D22" t="s">
@@ -2917,7 +3704,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" hidden="1">
       <c r="A23">
         <v>30</v>
       </c>
@@ -2925,7 +3712,7 @@
         <v>22068.13944667</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f>B23*60</f>
         <v>1324088.3668002</v>
       </c>
       <c r="D23" t="s">
@@ -2935,7 +3722,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" hidden="1">
       <c r="A24">
         <v>111</v>
       </c>
@@ -2943,7 +3730,7 @@
         <v>15756.250749549999</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f>B24*60</f>
         <v>945375.04497299995</v>
       </c>
       <c r="D24" t="s">
@@ -2953,7 +3740,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>9</v>
       </c>
@@ -2961,7 +3748,7 @@
         <v>13880.62221111</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f>B25*60</f>
         <v>832837.33266660001</v>
       </c>
       <c r="D25" t="s">
@@ -2971,7 +3758,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2979,7 +3766,7 @@
         <v>8381.9</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f>B26*60</f>
         <v>502914</v>
       </c>
       <c r="D26" t="s">
@@ -2989,7 +3776,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" hidden="1">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2997,7 +3784,7 @@
         <v>7868.4416499999998</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f>B27*60</f>
         <v>472106.49900000001</v>
       </c>
       <c r="D27" t="s">
@@ -3007,7 +3794,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3015,7 +3802,7 @@
         <v>7293.5333000000001</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f>B28*60</f>
         <v>437611.99800000002</v>
       </c>
       <c r="D28" t="s">
@@ -3025,7 +3812,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" hidden="1">
       <c r="A29">
         <v>5</v>
       </c>
@@ -3033,7 +3820,7 @@
         <v>5308.87</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f>B29*60</f>
         <v>318532.2</v>
       </c>
       <c r="D29" t="s">
@@ -3043,7 +3830,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>7</v>
       </c>
@@ -3051,7 +3838,7 @@
         <v>4248.0190428599999</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f>B30*60</f>
         <v>254881.14257159998</v>
       </c>
       <c r="D30" t="s">
@@ -3061,7 +3848,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" hidden="1">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3069,7 +3856,7 @@
         <v>3998.0832999999998</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f>B31*60</f>
         <v>239884.99799999999</v>
       </c>
       <c r="D31" t="s">
@@ -3079,7 +3866,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3087,7 +3874,7 @@
         <v>2774.7111333299999</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f>B32*60</f>
         <v>166482.6679998</v>
       </c>
       <c r="D32" t="s">
@@ -3097,7 +3884,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>2</v>
       </c>
@@ -3105,7 +3892,7 @@
         <v>2252.4583499999999</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f>B33*60</f>
         <v>135147.50099999999</v>
       </c>
       <c r="D33" t="s">
@@ -3115,7 +3902,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>1</v>
       </c>
@@ -3123,7 +3910,7 @@
         <v>1588.9833000000001</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
+        <f>B34*60</f>
         <v>95338.998000000007</v>
       </c>
       <c r="D34" t="s">
@@ -3134,7 +3921,35 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D34">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Azure-Samples/active-directory-android"/>
+        <filter val="Azure-Samples/active-directory-angularjs-singlepageapp"/>
+        <filter val="Azure-Samples/active-directory-angularjs-singlepageapp-dotnet-webapi"/>
+        <filter val="Azure-Samples/active-directory-b2c-xamarin-native"/>
+        <filter val="Azure-Samples/active-directory-cordova-graphapi"/>
+        <filter val="Azure-Samples/active-directory-dotnet-daemon-certificate-credential"/>
+        <filter val="Azure-Samples/active-directory-dotnet-graphapi-console"/>
+        <filter val="Azure-Samples/active-directory-dotnet-graphapi-web"/>
+        <filter val="Azure-Samples/active-directory-dotnet-native-desktop"/>
+        <filter val="Azure-Samples/active-directory-dotnet-native-headless"/>
+        <filter val="Azure-Samples/active-directory-dotnet-webapp-groupclaims"/>
+        <filter val="Azure-Samples/active-directory-dotnet-webapp-roleclaims"/>
+        <filter val="Azure-Samples/active-directory-dotnet-webapp-webapi-multitenant-openidconnect"/>
+        <filter val="Azure-Samples/active-directory-dotnet-webapp-webapi-openidconnect-aspnetcore"/>
+        <filter val="Azure-Samples/active-directory-dotnet-windows-store"/>
+        <filter val="Azure-Samples/active-directory-java-native-headless"/>
+        <filter val="Azure-Samples/active-directory-java-webapp-openidconnect"/>
+        <filter val="Azure-Samples/active-directory-php-graphapi-web"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:E34">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>